--- a/docs/rate.xlsx
+++ b/docs/rate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22e8633286bd19a7/Documents/dev/vector/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FCA573-9FDF-4E59-A501-B34FE5194B3E}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA2D97B-690F-49F7-8096-EB820E28C444}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{9DF68624-D4B9-4083-BFAE-DE2CA7971FFA}"/>
+    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{9DF68624-D4B9-4083-BFAE-DE2CA7971FFA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Performance" sheetId="1" r:id="rId1"/>
+    <sheet name="AMD CPU" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,22 +53,10 @@
     <t>MSVC Total (ms)</t>
   </si>
   <si>
-    <t>NVCC (win) init (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (win) oper (ms)</t>
-  </si>
-  <si>
     <t>NVCC (win) copy (ms)</t>
   </si>
   <si>
     <t>NVCC (win) verify (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (win) Core (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (win) Total (ms)</t>
   </si>
   <si>
     <t>GCC init (ms)</t>
@@ -84,24 +72,6 @@
   </si>
   <si>
     <t>GCC Total (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) init (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) oper (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) copy (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) verify (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) Core (ms)</t>
-  </si>
-  <si>
-    <t>NVCC (linux) Total (ms)</t>
   </si>
   <si>
     <t>0.5256 ms</t>
@@ -126,6 +96,36 @@
   </si>
   <si>
     <t>1733.53 ms</t>
+  </si>
+  <si>
+    <t>NVCC (win11) init (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (win11) oper (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (win11) Core (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (win11) Total (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) init (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) oper (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) copy (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) verify (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) Core (ms)</t>
+  </si>
+  <si>
+    <t>NVCC (wsl2) Total (ms)</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$F$1</c:f>
+              <c:f>'AMD CPU'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -797,7 +797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -830,7 +830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$F$2:$F$9</c:f>
+              <c:f>'AMD CPU'!$F$2:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -873,11 +873,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$L$1</c:f>
+              <c:f>'AMD CPU'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NVCC (win) Total (ms)</c:v>
+                  <c:v>NVCC (win11) Total (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -914,7 +914,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -947,7 +947,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$L$2:$L$9</c:f>
+              <c:f>'AMD CPU'!$L$2:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -990,7 +990,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$Q$1</c:f>
+              <c:f>'AMD CPU'!$Q$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1025,7 +1025,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1058,7 +1058,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$Q$2:$Q$9</c:f>
+              <c:f>'AMD CPU'!$Q$2:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1101,11 +1101,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$W$1</c:f>
+              <c:f>'AMD CPU'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NVCC (linux) Total (ms)</c:v>
+                  <c:v>NVCC (wsl2) Total (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,7 +1136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1169,7 +1169,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$W$2:$W$9</c:f>
+              <c:f>'AMD CPU'!$W$2:$W$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1536,6 +1536,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1619,7 +1620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$E$1</c:f>
+              <c:f>'AMD CPU'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1660,7 +1661,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1693,7 +1694,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$E$2:$E$9</c:f>
+              <c:f>'AMD CPU'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1736,11 +1737,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$K$1</c:f>
+              <c:f>'AMD CPU'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NVCC (win) Core (ms)</c:v>
+                  <c:v>NVCC (win11) Core (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1777,7 +1778,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1810,7 +1811,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$K$2:$K$9</c:f>
+              <c:f>'AMD CPU'!$K$2:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1853,7 +1854,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$P$1</c:f>
+              <c:f>'AMD CPU'!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1888,7 +1889,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1921,7 +1922,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$P$2:$P$9</c:f>
+              <c:f>'AMD CPU'!$P$2:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1964,11 +1965,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$V$1</c:f>
+              <c:f>'AMD CPU'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NVCC (linux) Core (ms)</c:v>
+                  <c:v>NVCC (wsl2) Core (ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1999,7 +2000,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Performance!$A$2:$A$9</c:f>
+              <c:f>'AMD CPU'!$A$2:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2032,7 +2033,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Performance!$V$2:$V$9</c:f>
+              <c:f>'AMD CPU'!$V$2:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2398,6 +2399,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3553,16 +3555,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>854869</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7144</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>862012</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3588,6 +3590,180 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73401</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.09427</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E6EB651-38B8-8B98-BC67-FE6B3F3F9796}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10251206" y="0"/>
+          <a:ext cx="3714825" cy="461981"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AMD Ryzen Threadripper 2990WX 32-Core Processor   3.00 GHz</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NVIDIA GeForce RTX 4080 Ti</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73366</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.10135</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3FAC02-D93E-746A-4408-EB8163BD3B75}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="10232342" y="0"/>
+          <a:ext cx="3714639" cy="461924"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>AMD Ryzen Threadripper 2990WX 32-Core Processor   3.00 GHz</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>NVIDIA GeForce RTX 4080 Ti</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3913,8 +4089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE75E16D-024E-4063-A895-F36D0968513C}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3964,55 +4140,55 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
@@ -4060,7 +4236,7 @@
         <v>1.2829E-2</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="O2">
         <v>1.65E-4</v>
@@ -4139,7 +4315,7 @@
         <v>7.3460000000000001E-3</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O3">
         <v>1.26E-4</v>
@@ -4218,7 +4394,7 @@
         <v>4.8995999999999998E-2</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O4">
         <v>7.7700000000000002E-4</v>
@@ -4297,7 +4473,7 @@
         <v>0.47220899999999999</v>
       </c>
       <c r="N5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O5">
         <v>7.424E-3</v>
@@ -4376,7 +4552,7 @@
         <v>4.8060099999999997</v>
       </c>
       <c r="N6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="O6">
         <v>7.7710000000000001E-2</v>
@@ -4455,7 +4631,7 @@
         <v>49.142600000000002</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="O7">
         <v>0.89044400000000001</v>
@@ -4534,7 +4710,7 @@
         <v>492.47</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O8">
         <v>9.2277900000000006</v>
@@ -4613,7 +4789,7 @@
         <v>6164.01</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O9">
         <v>83.263999999999996</v>

--- a/docs/rate.xlsx
+++ b/docs/rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22e8633286bd19a7/Documents/dev/vector/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22e8633286bd19a7/Documents/dev/map-reduce/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BA2D97B-690F-49F7-8096-EB820E28C444}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEEA66C-240E-415F-84B8-80E6C416CF59}"/>
   <bookViews>
-    <workbookView xWindow="28702" yWindow="-98" windowWidth="28995" windowHeight="15675" xr2:uid="{9DF68624-D4B9-4083-BFAE-DE2CA7971FFA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{9DF68624-D4B9-4083-BFAE-DE2CA7971FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="AMD CPU" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>count</t>
   </si>
@@ -72,30 +72,6 @@
   </si>
   <si>
     <t>GCC Total (ms)</t>
-  </si>
-  <si>
-    <t>0.5256 ms</t>
-  </si>
-  <si>
-    <t>0.001844 ms</t>
-  </si>
-  <si>
-    <t>0.017671 ms</t>
-  </si>
-  <si>
-    <t>0.160039 ms</t>
-  </si>
-  <si>
-    <t>2.15906 ms</t>
-  </si>
-  <si>
-    <t>17.5059 ms</t>
-  </si>
-  <si>
-    <t>183.69 ms</t>
-  </si>
-  <si>
-    <t>1733.53 ms</t>
   </si>
   <si>
     <t>NVCC (win11) init (ms)</t>
@@ -614,9 +590,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -835,28 +812,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2500000000000003E-2</c:v>
+                  <c:v>2.35E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2500000000000001E-2</c:v>
+                  <c:v>1.67E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30399999999999999</c:v>
+                  <c:v>0.1285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4791000000000003</c:v>
+                  <c:v>1.4245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.428599999999996</c:v>
+                  <c:v>12.126100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>332.45659999999998</c:v>
+                  <c:v>105.43089999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3318.5460000000003</c:v>
+                  <c:v>1071.1759999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31990.93</c:v>
+                  <c:v>10521.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,28 +929,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.9429999999999998</c:v>
+                  <c:v>1.3663000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1863000000000001</c:v>
+                  <c:v>1.9877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4060000000000001</c:v>
+                  <c:v>1.7414999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9015999999999997</c:v>
+                  <c:v>2.2688000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2523</c:v>
+                  <c:v>7.9638999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.603099999999998</c:v>
+                  <c:v>35.898499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168.64789999999999</c:v>
+                  <c:v>302.37220000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1637.9149</c:v>
+                  <c:v>2888.817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,28 +1040,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2994E-2</c:v>
+                  <c:v>1.2095E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4720000000000003E-3</c:v>
+                  <c:v>6.8890000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9772999999999998E-2</c:v>
+                  <c:v>6.7912E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47963299999999998</c:v>
+                  <c:v>0.66601100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8837199999999994</c:v>
+                  <c:v>7.2155259999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.033044000000004</c:v>
+                  <c:v>65.902839999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>501.69779000000005</c:v>
+                  <c:v>674.29329999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6247.2740000000003</c:v>
+                  <c:v>6514.6869999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,28 +1151,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.4139759999999999</c:v>
+                  <c:v>1.438361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4589100000000002</c:v>
+                  <c:v>1.4013879999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0260659999999997</c:v>
+                  <c:v>2.237943</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7797729999999996</c:v>
+                  <c:v>1.775776</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8303419999999999</c:v>
+                  <c:v>6.2084380000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.852442999999997</c:v>
+                  <c:v>15.817129999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.627099999999999</c:v>
+                  <c:v>139.59014000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>916.31569999999999</c:v>
+                  <c:v>1403.9939999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1699,28 +1676,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.2200000000000001E-2</c:v>
+                  <c:v>2.29E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1099999999999999E-2</c:v>
+                  <c:v>1.44E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29159999999999997</c:v>
+                  <c:v>0.10550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3570000000000002</c:v>
+                  <c:v>1.1881999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.049599999999998</c:v>
+                  <c:v>9.9671000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>318.09699999999998</c:v>
+                  <c:v>83.956099999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3189.71</c:v>
+                  <c:v>858.75699999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30656.5</c:v>
+                  <c:v>8393.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1816,28 +1793,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.8443999999999998</c:v>
+                  <c:v>1.3202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1194000000000002</c:v>
+                  <c:v>1.9008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3245</c:v>
+                  <c:v>1.6469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5952999999999999</c:v>
+                  <c:v>1.8342000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.7073</c:v>
+                  <c:v>3.8664999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.086699999999999</c:v>
+                  <c:v>7.3176000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.0334</c:v>
+                  <c:v>30.7303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>442.0129</c:v>
+                  <c:v>269.84500000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,28 +1904,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2829E-2</c:v>
+                  <c:v>1.2022E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3460000000000001E-3</c:v>
+                  <c:v>6.5300000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8995999999999998E-2</c:v>
+                  <c:v>6.4578999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47220899999999999</c:v>
+                  <c:v>0.63259200000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8060099999999997</c:v>
+                  <c:v>6.8655799999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.142600000000002</c:v>
+                  <c:v>62.680300000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>492.47</c:v>
+                  <c:v>641.65599999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6164.01</c:v>
+                  <c:v>6182.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,28 +2015,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.3405589999999998</c:v>
+                  <c:v>1.365645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.37497</c:v>
+                  <c:v>1.313445</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.950947</c:v>
+                  <c:v>2.1269210000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6525289999999999</c:v>
+                  <c:v>1.582541</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.3071099999999998</c:v>
+                  <c:v>5.0874199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.699019999999999</c:v>
+                  <c:v>6.5528199999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.906489999999998</c:v>
+                  <c:v>29.762840000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>404.93360000000001</c:v>
+                  <c:v>269.35199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE75E16D-024E-4063-A895-F36D0968513C}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4140,10 +4117,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -4152,10 +4129,10 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
         <v>8</v>
@@ -4173,22 +4150,22 @@
         <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.45">
@@ -4196,78 +4173,78 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.9E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>3.2000000000000002E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="D2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="E2">
         <f>SUM(B2:C2)</f>
-        <v>2.2200000000000001E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="F2">
         <f>SUM(B2:D2)</f>
-        <v>2.2500000000000003E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="G2">
-        <v>0.3518</v>
+        <v>0.21779999999999999</v>
       </c>
       <c r="H2">
-        <v>1.4925999999999999</v>
+        <v>1.1024</v>
       </c>
       <c r="I2">
-        <v>9.8100000000000007E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="J2">
-        <v>5.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="K2">
         <f>SUM(G2:H2)</f>
-        <v>1.8443999999999998</v>
+        <v>1.3202</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L9" si="0">SUM(G2:J2)</f>
-        <v>1.9429999999999998</v>
+        <v>1.3663000000000001</v>
       </c>
       <c r="M2">
-        <v>1.2829E-2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2">
-        <v>1.65E-4</v>
+        <v>9.358E-3</v>
+      </c>
+      <c r="N2">
+        <v>2.6640000000000001E-3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="P2">
         <f>SUM(M2:N2)</f>
-        <v>1.2829E-2</v>
+        <v>1.2022E-2</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q9" si="1">SUM(M2:O2)</f>
-        <v>1.2994E-2</v>
+        <v>1.2095E-2</v>
       </c>
       <c r="R2">
-        <v>0.471829</v>
+        <v>0.61881699999999995</v>
       </c>
       <c r="S2">
-        <v>1.86873</v>
+        <v>0.74682800000000005</v>
       </c>
       <c r="T2">
-        <v>7.3043999999999998E-2</v>
+        <v>7.2486999999999996E-2</v>
       </c>
       <c r="U2">
-        <v>3.7300000000000001E-4</v>
+        <v>2.2900000000000001E-4</v>
       </c>
       <c r="V2">
         <f>SUM(R2:S2)</f>
-        <v>2.3405589999999998</v>
+        <v>1.365645</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W9" si="2">SUM(R2:U2)</f>
-        <v>2.4139759999999999</v>
+        <v>1.438361</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -4275,78 +4252,78 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>1.8599999999999998E-2</v>
+        <v>1.12E-2</v>
       </c>
       <c r="C3">
-        <v>1.2500000000000001E-2</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="D3">
-        <v>1.4E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="3">SUM(B3:C3)</f>
-        <v>3.1099999999999999E-2</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="4">SUM(B3:D3)</f>
-        <v>3.2500000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="G3">
-        <v>0.307</v>
+        <v>0.3972</v>
       </c>
       <c r="H3">
-        <v>1.8124</v>
+        <v>1.5036</v>
       </c>
       <c r="I3">
-        <v>6.5500000000000003E-2</v>
+        <v>8.2600000000000007E-2</v>
       </c>
       <c r="J3">
-        <v>1.4E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="5">SUM(G3:H3)</f>
-        <v>2.1194000000000002</v>
+        <v>1.9008</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>2.1863000000000001</v>
+        <v>1.9877</v>
       </c>
       <c r="M3">
-        <v>7.3460000000000001E-3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
+        <v>4.849E-3</v>
+      </c>
+      <c r="N3">
+        <v>1.681E-3</v>
       </c>
       <c r="O3">
-        <v>1.26E-4</v>
+        <v>3.59E-4</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P9" si="6">SUM(M3:N3)</f>
-        <v>7.3460000000000001E-3</v>
+        <v>6.5300000000000002E-3</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>7.4720000000000003E-3</v>
+        <v>6.8890000000000002E-3</v>
       </c>
       <c r="R3">
-        <v>0.46818500000000002</v>
+        <v>0.50535200000000002</v>
       </c>
       <c r="S3">
-        <v>0.90678499999999995</v>
+        <v>0.80809299999999995</v>
       </c>
       <c r="T3">
-        <v>8.3622000000000002E-2</v>
+        <v>8.7070999999999996E-2</v>
       </c>
       <c r="U3">
-        <v>3.1799999999999998E-4</v>
+        <v>8.7200000000000005E-4</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V9" si="7">SUM(R3:S3)</f>
-        <v>1.37497</v>
+        <v>1.313445</v>
       </c>
       <c r="W3">
         <f t="shared" si="2"/>
-        <v>1.4589100000000002</v>
+        <v>1.4013879999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -4354,78 +4331,78 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>0.19769999999999999</v>
+        <v>6.9400000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>9.3899999999999997E-2</v>
+        <v>3.61E-2</v>
       </c>
       <c r="D4">
-        <v>1.24E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>0.29159999999999997</v>
+        <v>0.10550000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>0.30399999999999999</v>
+        <v>0.1285</v>
       </c>
       <c r="G4">
-        <v>0.26390000000000002</v>
+        <v>0.2046</v>
       </c>
       <c r="H4">
-        <v>2.0606</v>
+        <v>1.4423999999999999</v>
       </c>
       <c r="I4">
-        <v>7.2800000000000004E-2</v>
+        <v>7.2400000000000006E-2</v>
       </c>
       <c r="J4">
-        <v>8.6999999999999994E-3</v>
+        <v>2.2100000000000002E-2</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>2.3245</v>
+        <v>1.6469999999999998</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>2.4060000000000001</v>
+        <v>1.7414999999999998</v>
       </c>
       <c r="M4">
-        <v>4.8995999999999998E-2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>15</v>
+        <v>4.9600999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.4978E-2</v>
       </c>
       <c r="O4">
-        <v>7.7700000000000002E-4</v>
+        <v>3.333E-3</v>
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>4.8995999999999998E-2</v>
+        <v>6.4578999999999998E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>4.9772999999999998E-2</v>
+        <v>6.7912E-2</v>
       </c>
       <c r="R4">
-        <v>0.50493699999999997</v>
+        <v>0.861151</v>
       </c>
       <c r="S4">
-        <v>1.44601</v>
+        <v>1.2657700000000001</v>
       </c>
       <c r="T4">
-        <v>7.4145000000000003E-2</v>
+        <v>0.10402400000000001</v>
       </c>
       <c r="U4">
-        <v>9.7400000000000004E-4</v>
+        <v>6.9979999999999999E-3</v>
       </c>
       <c r="V4">
         <f t="shared" si="7"/>
-        <v>1.950947</v>
+        <v>2.1269210000000003</v>
       </c>
       <c r="W4">
         <f t="shared" si="2"/>
-        <v>2.0260659999999997</v>
+        <v>2.237943</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -4433,78 +4410,78 @@
         <v>10000</v>
       </c>
       <c r="B5">
-        <v>2.1371000000000002</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="C5">
-        <v>1.2199</v>
+        <v>0.42170000000000002</v>
       </c>
       <c r="D5">
-        <v>0.1221</v>
+        <v>0.2364</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>3.3570000000000002</v>
+        <v>1.1881999999999999</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>3.4791000000000003</v>
+        <v>1.4245999999999999</v>
       </c>
       <c r="G5">
-        <v>0.2432</v>
+        <v>0.21190000000000001</v>
       </c>
       <c r="H5">
-        <v>2.3521000000000001</v>
+        <v>1.6223000000000001</v>
       </c>
       <c r="I5">
-        <v>0.222</v>
+        <v>0.21859999999999999</v>
       </c>
       <c r="J5">
-        <v>8.43E-2</v>
+        <v>0.216</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>2.5952999999999999</v>
+        <v>1.8342000000000001</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>2.9015999999999997</v>
+        <v>2.2688000000000001</v>
       </c>
       <c r="M5">
-        <v>0.47220899999999999</v>
-      </c>
-      <c r="N5" t="s">
-        <v>16</v>
+        <v>0.47629500000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.15629699999999999</v>
       </c>
       <c r="O5">
-        <v>7.424E-3</v>
+        <v>3.3418999999999997E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>0.47220899999999999</v>
+        <v>0.63259200000000004</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.47963299999999998</v>
+        <v>0.66601100000000002</v>
       </c>
       <c r="R5">
-        <v>0.49748900000000001</v>
+        <v>0.56026100000000001</v>
       </c>
       <c r="S5">
-        <v>2.1550400000000001</v>
+        <v>1.0222800000000001</v>
       </c>
       <c r="T5">
-        <v>0.118232</v>
+        <v>0.123677</v>
       </c>
       <c r="U5">
-        <v>9.0119999999999992E-3</v>
+        <v>6.9557999999999995E-2</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
-        <v>2.6525289999999999</v>
+        <v>1.582541</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>2.7797729999999996</v>
+        <v>1.775776</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -4512,78 +4489,78 @@
         <v>100000</v>
       </c>
       <c r="B6">
-        <v>20.9983</v>
+        <v>7.7336</v>
       </c>
       <c r="C6">
-        <v>10.051299999999999</v>
+        <v>2.2334999999999998</v>
       </c>
       <c r="D6">
-        <v>1.379</v>
+        <v>2.1589999999999998</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>31.049599999999998</v>
+        <v>9.9671000000000003</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>32.428599999999996</v>
+        <v>12.126100000000001</v>
       </c>
       <c r="G6">
-        <v>0.23930000000000001</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="H6">
-        <v>5.468</v>
+        <v>3.6659999999999999</v>
       </c>
       <c r="I6">
-        <v>1.7322</v>
+        <v>1.7498</v>
       </c>
       <c r="J6">
-        <v>0.81279999999999997</v>
+        <v>2.3475999999999999</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>5.7073</v>
+        <v>3.8664999999999998</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>8.2523</v>
+        <v>7.9638999999999998</v>
       </c>
       <c r="M6">
-        <v>4.8060099999999997</v>
-      </c>
-      <c r="N6" t="s">
-        <v>17</v>
+        <v>5.0404799999999996</v>
+      </c>
+      <c r="N6">
+        <v>1.8250999999999999</v>
       </c>
       <c r="O6">
-        <v>7.7710000000000001E-2</v>
+        <v>0.34994599999999998</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>4.8060099999999997</v>
+        <v>6.8655799999999996</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>4.8837199999999994</v>
+        <v>7.2155259999999997</v>
       </c>
       <c r="R6">
-        <v>0.44286999999999999</v>
+        <v>0.44688</v>
       </c>
       <c r="S6">
-        <v>6.8642399999999997</v>
+        <v>4.6405399999999997</v>
       </c>
       <c r="T6">
-        <v>0.44401600000000002</v>
+        <v>0.425288</v>
       </c>
       <c r="U6">
-        <v>7.9215999999999995E-2</v>
+        <v>0.69572999999999996</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
-        <v>7.3071099999999998</v>
+        <v>5.0874199999999998</v>
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>7.8303419999999999</v>
+        <v>6.2084380000000001</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -4591,78 +4568,78 @@
         <v>1000000</v>
       </c>
       <c r="B7">
-        <v>205.38499999999999</v>
+        <v>64.174099999999996</v>
       </c>
       <c r="C7">
-        <v>112.712</v>
+        <v>19.782</v>
       </c>
       <c r="D7">
-        <v>14.3596</v>
+        <v>21.474799999999998</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>318.09699999999998</v>
+        <v>83.956099999999992</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>332.45659999999998</v>
+        <v>105.43089999999999</v>
       </c>
       <c r="G7">
-        <v>0.38600000000000001</v>
+        <v>0.43159999999999998</v>
       </c>
       <c r="H7">
-        <v>9.7006999999999994</v>
+        <v>6.8860000000000001</v>
       </c>
       <c r="I7">
-        <v>4.3034999999999997</v>
+        <v>4.6177000000000001</v>
       </c>
       <c r="J7">
-        <v>8.2128999999999994</v>
+        <v>23.963200000000001</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>10.086699999999999</v>
+        <v>7.3176000000000005</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>22.603099999999998</v>
+        <v>35.898499999999999</v>
       </c>
       <c r="M7">
-        <v>49.142600000000002</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
+        <v>46.968699999999998</v>
+      </c>
+      <c r="N7">
+        <v>15.711600000000001</v>
       </c>
       <c r="O7">
-        <v>0.89044400000000001</v>
+        <v>3.22254</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>49.142600000000002</v>
+        <v>62.680300000000003</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>50.033044000000004</v>
+        <v>65.902839999999998</v>
       </c>
       <c r="R7">
-        <v>1.06002</v>
+        <v>0.84784000000000004</v>
       </c>
       <c r="S7">
-        <v>12.638999999999999</v>
+        <v>5.7049799999999999</v>
       </c>
       <c r="T7">
-        <v>5.32721</v>
+        <v>2.4126099999999999</v>
       </c>
       <c r="U7">
-        <v>0.82621299999999998</v>
+        <v>6.8517000000000001</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>13.699019999999999</v>
+        <v>6.5528199999999996</v>
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>19.852442999999997</v>
+        <v>15.817129999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -4670,78 +4647,78 @@
         <v>10000000</v>
       </c>
       <c r="B8">
-        <v>2148.37</v>
+        <v>634.95299999999997</v>
       </c>
       <c r="C8">
-        <v>1041.3399999999999</v>
+        <v>223.804</v>
       </c>
       <c r="D8">
-        <v>128.83600000000001</v>
+        <v>212.41900000000001</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>3189.71</v>
+        <v>858.75699999999995</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>3318.5460000000003</v>
+        <v>1071.1759999999999</v>
       </c>
       <c r="G8">
-        <v>0.80349999999999999</v>
+        <v>1.5701000000000001</v>
       </c>
       <c r="H8">
-        <v>50.229900000000001</v>
+        <v>29.1602</v>
       </c>
       <c r="I8">
-        <v>37.7761</v>
+        <v>40.905900000000003</v>
       </c>
       <c r="J8">
-        <v>79.838399999999993</v>
+        <v>230.73599999999999</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>51.0334</v>
+        <v>30.7303</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>168.64789999999999</v>
+        <v>302.37220000000002</v>
       </c>
       <c r="M8">
-        <v>492.47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
+        <v>483.28699999999998</v>
+      </c>
+      <c r="N8">
+        <v>158.369</v>
       </c>
       <c r="O8">
-        <v>9.2277900000000006</v>
+        <v>32.637300000000003</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>492.47</v>
+        <v>641.65599999999995</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>501.69779000000005</v>
+        <v>674.29329999999993</v>
       </c>
       <c r="R8">
-        <v>2.30789</v>
+        <v>2.0986400000000001</v>
       </c>
       <c r="S8">
-        <v>44.598599999999998</v>
+        <v>27.664200000000001</v>
       </c>
       <c r="T8">
-        <v>43.825600000000001</v>
+        <v>44.231900000000003</v>
       </c>
       <c r="U8">
-        <v>7.8950100000000001</v>
+        <v>65.595399999999998</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>46.906489999999998</v>
+        <v>29.762840000000001</v>
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>98.627099999999999</v>
+        <v>139.59014000000002</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -4749,78 +4726,78 @@
         <v>100000000</v>
       </c>
       <c r="B9">
-        <v>20253.099999999999</v>
+        <v>6414.86</v>
       </c>
       <c r="C9">
-        <v>10403.4</v>
+        <v>1978.37</v>
       </c>
       <c r="D9">
-        <v>1334.43</v>
+        <v>2128.1999999999998</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>30656.5</v>
+        <v>8393.23</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>31990.93</v>
+        <v>10521.43</v>
       </c>
       <c r="G9">
-        <v>8.6949000000000005</v>
+        <v>7.3479999999999999</v>
       </c>
       <c r="H9">
-        <v>433.31799999999998</v>
+        <v>262.49700000000001</v>
       </c>
       <c r="I9">
-        <v>387.58800000000002</v>
+        <v>407.92200000000003</v>
       </c>
       <c r="J9">
-        <v>808.31399999999996</v>
+        <v>2211.0500000000002</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>442.0129</v>
+        <v>269.84500000000003</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>1637.9149</v>
+        <v>2888.817</v>
       </c>
       <c r="M9">
-        <v>6164.01</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
+        <v>4622.03</v>
+      </c>
+      <c r="N9">
+        <v>1560.01</v>
       </c>
       <c r="O9">
-        <v>83.263999999999996</v>
+        <v>332.64699999999999</v>
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
-        <v>6164.01</v>
+        <v>6182.04</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>6247.2740000000003</v>
+        <v>6514.6869999999999</v>
       </c>
       <c r="R9">
-        <v>15.3826</v>
+        <v>16.789000000000001</v>
       </c>
       <c r="S9">
-        <v>389.55099999999999</v>
+        <v>252.56299999999999</v>
       </c>
       <c r="T9">
-        <v>433.16800000000001</v>
+        <v>455.79399999999998</v>
       </c>
       <c r="U9">
-        <v>78.214100000000002</v>
+        <v>678.84799999999996</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>404.93360000000001</v>
+        <v>269.35199999999998</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>916.31569999999999</v>
+        <v>1403.9939999999999</v>
       </c>
     </row>
   </sheetData>

--- a/docs/rate.xlsx
+++ b/docs/rate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22e8633286bd19a7/Documents/dev/map-reduce/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="195" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FEEA66C-240E-415F-84B8-80E6C416CF59}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{8E589E63-48AD-4E69-8076-DD012BDE5EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E394FC-6F4F-4C63-B0FC-323366CF7794}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{9DF68624-D4B9-4083-BFAE-DE2CA7971FFA}"/>
   </bookViews>
@@ -812,28 +812,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.35E-2</c:v>
+                  <c:v>1.5299999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.67E-2</c:v>
+                  <c:v>1.38E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1285</c:v>
+                  <c:v>0.13320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4245999999999999</c:v>
+                  <c:v>1.5338000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.126100000000001</c:v>
+                  <c:v>13.767399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.43089999999999</c:v>
+                  <c:v>118.60570000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1071.1759999999999</c:v>
+                  <c:v>1022.258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10521.43</c:v>
+                  <c:v>10462.210000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,28 +929,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3663000000000001</c:v>
+                  <c:v>0.96619999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9877</c:v>
+                  <c:v>1.0487</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7414999999999998</c:v>
+                  <c:v>1.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2688000000000001</c:v>
+                  <c:v>1.7806</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9638999999999998</c:v>
+                  <c:v>7.6591999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.898499999999999</c:v>
+                  <c:v>35.364199999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>302.37220000000002</c:v>
+                  <c:v>298.73950000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2888.817</c:v>
+                  <c:v>2982.2883000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,28 +1040,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2095E-2</c:v>
+                  <c:v>1.3261E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8890000000000002E-3</c:v>
+                  <c:v>7.1809999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7912E-2</c:v>
+                  <c:v>7.8535000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66601100000000002</c:v>
+                  <c:v>0.75371299999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2155259999999997</c:v>
+                  <c:v>7.7903689999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.902839999999998</c:v>
+                  <c:v>66.46069</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>674.29329999999993</c:v>
+                  <c:v>660.08050000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6514.6869999999999</c:v>
+                  <c:v>9478.5969999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,28 +1151,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.438361</c:v>
+                  <c:v>1.6995840000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4013879999999999</c:v>
+                  <c:v>1.1212899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.237943</c:v>
+                  <c:v>1.424477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.775776</c:v>
+                  <c:v>1.4679379999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2084380000000001</c:v>
+                  <c:v>4.5098760000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.817129999999999</c:v>
+                  <c:v>18.800899999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>139.59014000000002</c:v>
+                  <c:v>142.20162999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1403.9939999999999</c:v>
+                  <c:v>1331.6327999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,28 +1676,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.29E-2</c:v>
+                  <c:v>1.4599999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.44E-2</c:v>
+                  <c:v>1.1299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10550000000000001</c:v>
+                  <c:v>0.10490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1881999999999999</c:v>
+                  <c:v>1.2861</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9671000000000003</c:v>
+                  <c:v>11.281599999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.956099999999992</c:v>
+                  <c:v>95.121000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>858.75699999999995</c:v>
+                  <c:v>813.226</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8393.23</c:v>
+                  <c:v>8356.2000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1793,28 +1793,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3202</c:v>
+                  <c:v>0.89380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9008</c:v>
+                  <c:v>0.99609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6469999999999998</c:v>
+                  <c:v>1.2238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8342000000000001</c:v>
+                  <c:v>1.4469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8664999999999998</c:v>
+                  <c:v>3.1673999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3176000000000005</c:v>
+                  <c:v>5.5765000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.7303</c:v>
+                  <c:v>30.401800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269.84500000000003</c:v>
+                  <c:v>268.22629999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1904,28 +1904,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2022E-2</c:v>
+                  <c:v>1.3178E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5300000000000002E-3</c:v>
+                  <c:v>6.7489999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4578999999999998E-2</c:v>
+                  <c:v>7.4660000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63259200000000004</c:v>
+                  <c:v>0.717862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8655799999999996</c:v>
+                  <c:v>7.4469899999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.680300000000003</c:v>
+                  <c:v>63.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>641.65599999999995</c:v>
+                  <c:v>626.78700000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6182.04</c:v>
+                  <c:v>9150.2099999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2015,28 +2015,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.365645</c:v>
+                  <c:v>1.6184690000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.313445</c:v>
+                  <c:v>1.036511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1269210000000003</c:v>
+                  <c:v>1.3197239999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.582541</c:v>
+                  <c:v>1.2970569999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0874199999999998</c:v>
+                  <c:v>3.3543050000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5528199999999996</c:v>
+                  <c:v>7.0670299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.762840000000001</c:v>
+                  <c:v>30.019930000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269.35199999999998</c:v>
+                  <c:v>252.33579999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4066,8 +4066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE75E16D-024E-4063-A895-F36D0968513C}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4173,78 +4173,78 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.4999999999999999E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="C2">
-        <v>7.9000000000000008E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="D2">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="E2">
         <f>SUM(B2:C2)</f>
-        <v>2.29E-2</v>
+        <v>1.4599999999999998E-2</v>
       </c>
       <c r="F2">
         <f>SUM(B2:D2)</f>
-        <v>2.35E-2</v>
+        <v>1.5299999999999998E-2</v>
       </c>
       <c r="G2">
-        <v>0.21779999999999999</v>
+        <v>0.2147</v>
       </c>
       <c r="H2">
-        <v>1.1024</v>
+        <v>0.67910000000000004</v>
       </c>
       <c r="I2">
-        <v>4.5499999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J2">
-        <v>5.9999999999999995E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="K2">
         <f>SUM(G2:H2)</f>
-        <v>1.3202</v>
+        <v>0.89380000000000004</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L9" si="0">SUM(G2:J2)</f>
-        <v>1.3663000000000001</v>
+        <v>0.96619999999999995</v>
       </c>
       <c r="M2">
-        <v>9.358E-3</v>
+        <v>1.1736E-2</v>
       </c>
       <c r="N2">
-        <v>2.6640000000000001E-3</v>
+        <v>1.4419999999999999E-3</v>
       </c>
       <c r="O2" s="2">
-        <v>7.2999999999999999E-5</v>
+        <v>8.2999999999999998E-5</v>
       </c>
       <c r="P2">
         <f>SUM(M2:N2)</f>
-        <v>1.2022E-2</v>
+        <v>1.3178E-2</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q9" si="1">SUM(M2:O2)</f>
-        <v>1.2095E-2</v>
+        <v>1.3261E-2</v>
       </c>
       <c r="R2">
-        <v>0.61881699999999995</v>
+        <v>0.52131899999999998</v>
       </c>
       <c r="S2">
-        <v>0.74682800000000005</v>
+        <v>1.0971500000000001</v>
       </c>
       <c r="T2">
-        <v>7.2486999999999996E-2</v>
+        <v>8.0784999999999996E-2</v>
       </c>
       <c r="U2">
-        <v>2.2900000000000001E-4</v>
+        <v>3.3E-4</v>
       </c>
       <c r="V2">
         <f>SUM(R2:S2)</f>
-        <v>1.365645</v>
+        <v>1.6184690000000002</v>
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W9" si="2">SUM(R2:U2)</f>
-        <v>1.438361</v>
+        <v>1.6995840000000002</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -4252,78 +4252,78 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>1.12E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="C3">
-        <v>3.2000000000000002E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="D3">
-        <v>2.3E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E9" si="3">SUM(B3:C3)</f>
-        <v>1.44E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="4">SUM(B3:D3)</f>
-        <v>1.67E-2</v>
+        <v>1.38E-2</v>
       </c>
       <c r="G3">
-        <v>0.3972</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="H3">
-        <v>1.5036</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="I3">
-        <v>8.2600000000000007E-2</v>
+        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J3">
-        <v>4.3E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="5">SUM(G3:H3)</f>
-        <v>1.9008</v>
+        <v>0.99609999999999999</v>
       </c>
       <c r="L3">
         <f t="shared" si="0"/>
-        <v>1.9877</v>
+        <v>1.0487</v>
       </c>
       <c r="M3">
-        <v>4.849E-3</v>
+        <v>4.986E-3</v>
       </c>
       <c r="N3">
-        <v>1.681E-3</v>
+        <v>1.763E-3</v>
       </c>
       <c r="O3">
-        <v>3.59E-4</v>
+        <v>4.3199999999999998E-4</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P9" si="6">SUM(M3:N3)</f>
-        <v>6.5300000000000002E-3</v>
+        <v>6.7489999999999998E-3</v>
       </c>
       <c r="Q3">
         <f t="shared" si="1"/>
-        <v>6.8890000000000002E-3</v>
+        <v>7.1809999999999999E-3</v>
       </c>
       <c r="R3">
-        <v>0.50535200000000002</v>
+        <v>0.44561600000000001</v>
       </c>
       <c r="S3">
-        <v>0.80809299999999995</v>
+        <v>0.59089499999999995</v>
       </c>
       <c r="T3">
-        <v>8.7070999999999996E-2</v>
+        <v>8.3520999999999998E-2</v>
       </c>
       <c r="U3">
-        <v>8.7200000000000005E-4</v>
+        <v>1.258E-3</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V9" si="7">SUM(R3:S3)</f>
-        <v>1.313445</v>
+        <v>1.036511</v>
       </c>
       <c r="W3">
         <f t="shared" si="2"/>
-        <v>1.4013879999999999</v>
+        <v>1.1212899999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.45">
@@ -4331,78 +4331,78 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>6.9400000000000003E-2</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="C4">
-        <v>3.61E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="D4">
-        <v>2.3E-2</v>
+        <v>2.8299999999999999E-2</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>0.10550000000000001</v>
+        <v>0.10490000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" si="4"/>
-        <v>0.1285</v>
+        <v>0.13320000000000001</v>
       </c>
       <c r="G4">
-        <v>0.2046</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="H4">
-        <v>1.4423999999999999</v>
+        <v>1.0247999999999999</v>
       </c>
       <c r="I4">
-        <v>7.2400000000000006E-2</v>
+        <v>6.7199999999999996E-2</v>
       </c>
       <c r="J4">
-        <v>2.2100000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>1.6469999999999998</v>
+        <v>1.2238</v>
       </c>
       <c r="L4">
         <f t="shared" si="0"/>
-        <v>1.7414999999999998</v>
+        <v>1.3159999999999998</v>
       </c>
       <c r="M4">
-        <v>4.9600999999999999E-2</v>
+        <v>5.6697999999999998E-2</v>
       </c>
       <c r="N4">
-        <v>1.4978E-2</v>
+        <v>1.7961999999999999E-2</v>
       </c>
       <c r="O4">
-        <v>3.333E-3</v>
+        <v>3.875E-3</v>
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>6.4578999999999998E-2</v>
+        <v>7.4660000000000004E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>6.7912E-2</v>
+        <v>7.8535000000000008E-2</v>
       </c>
       <c r="R4">
-        <v>0.861151</v>
+        <v>0.47459200000000001</v>
       </c>
       <c r="S4">
-        <v>1.2657700000000001</v>
+        <v>0.84513199999999999</v>
       </c>
       <c r="T4">
-        <v>0.10402400000000001</v>
+        <v>9.7727999999999995E-2</v>
       </c>
       <c r="U4">
-        <v>6.9979999999999999E-3</v>
+        <v>7.025E-3</v>
       </c>
       <c r="V4">
         <f t="shared" si="7"/>
-        <v>2.1269210000000003</v>
+        <v>1.3197239999999999</v>
       </c>
       <c r="W4">
         <f t="shared" si="2"/>
-        <v>2.237943</v>
+        <v>1.424477</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.45">
@@ -4410,78 +4410,78 @@
         <v>10000</v>
       </c>
       <c r="B5">
-        <v>0.76649999999999996</v>
+        <v>0.84370000000000001</v>
       </c>
       <c r="C5">
-        <v>0.42170000000000002</v>
+        <v>0.44240000000000002</v>
       </c>
       <c r="D5">
-        <v>0.2364</v>
+        <v>0.2477</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>1.1881999999999999</v>
+        <v>1.2861</v>
       </c>
       <c r="F5">
         <f t="shared" si="4"/>
-        <v>1.4245999999999999</v>
+        <v>1.5338000000000001</v>
       </c>
       <c r="G5">
-        <v>0.21190000000000001</v>
+        <v>0.2001</v>
       </c>
       <c r="H5">
-        <v>1.6223000000000001</v>
+        <v>1.2468999999999999</v>
       </c>
       <c r="I5">
-        <v>0.21859999999999999</v>
+        <v>8.5800000000000001E-2</v>
       </c>
       <c r="J5">
-        <v>0.216</v>
+        <v>0.24779999999999999</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>1.8342000000000001</v>
+        <v>1.4469999999999998</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>2.2688000000000001</v>
+        <v>1.7806</v>
       </c>
       <c r="M5">
-        <v>0.47629500000000002</v>
+        <v>0.54696199999999995</v>
       </c>
       <c r="N5">
-        <v>0.15629699999999999</v>
+        <v>0.1709</v>
       </c>
       <c r="O5">
-        <v>3.3418999999999997E-2</v>
+        <v>3.5851000000000001E-2</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>0.63259200000000004</v>
+        <v>0.717862</v>
       </c>
       <c r="Q5">
         <f t="shared" si="1"/>
-        <v>0.66601100000000002</v>
+        <v>0.75371299999999997</v>
       </c>
       <c r="R5">
-        <v>0.56026100000000001</v>
+        <v>0.47682099999999999</v>
       </c>
       <c r="S5">
-        <v>1.0222800000000001</v>
+        <v>0.82023599999999997</v>
       </c>
       <c r="T5">
-        <v>0.123677</v>
+        <v>0.105322</v>
       </c>
       <c r="U5">
-        <v>6.9557999999999995E-2</v>
+        <v>6.5559000000000006E-2</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
-        <v>1.582541</v>
+        <v>1.2970569999999999</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>1.775776</v>
+        <v>1.4679379999999997</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.45">
@@ -4489,78 +4489,78 @@
         <v>100000</v>
       </c>
       <c r="B6">
-        <v>7.7336</v>
+        <v>8.7974999999999994</v>
       </c>
       <c r="C6">
-        <v>2.2334999999999998</v>
+        <v>2.4841000000000002</v>
       </c>
       <c r="D6">
-        <v>2.1589999999999998</v>
+        <v>2.4857999999999998</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>9.9671000000000003</v>
+        <v>11.281599999999999</v>
       </c>
       <c r="F6">
         <f t="shared" si="4"/>
-        <v>12.126100000000001</v>
+        <v>13.767399999999999</v>
       </c>
       <c r="G6">
-        <v>0.20050000000000001</v>
+        <v>0.22470000000000001</v>
       </c>
       <c r="H6">
-        <v>3.6659999999999999</v>
+        <v>2.9426999999999999</v>
       </c>
       <c r="I6">
-        <v>1.7498</v>
+        <v>2.0160999999999998</v>
       </c>
       <c r="J6">
-        <v>2.3475999999999999</v>
+        <v>2.4756999999999998</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>3.8664999999999998</v>
+        <v>3.1673999999999998</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>7.9638999999999998</v>
+        <v>7.6591999999999993</v>
       </c>
       <c r="M6">
-        <v>5.0404799999999996</v>
+        <v>5.46922</v>
       </c>
       <c r="N6">
-        <v>1.8250999999999999</v>
+        <v>1.97777</v>
       </c>
       <c r="O6">
-        <v>0.34994599999999998</v>
+        <v>0.34337899999999999</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>6.8655799999999996</v>
+        <v>7.4469899999999996</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>7.2155259999999997</v>
+        <v>7.7903689999999992</v>
       </c>
       <c r="R6">
-        <v>0.44688</v>
+        <v>0.37850499999999998</v>
       </c>
       <c r="S6">
-        <v>4.6405399999999997</v>
+        <v>2.9758</v>
       </c>
       <c r="T6">
-        <v>0.425288</v>
+        <v>0.464864</v>
       </c>
       <c r="U6">
-        <v>0.69572999999999996</v>
+        <v>0.69070699999999996</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
-        <v>5.0874199999999998</v>
+        <v>3.3543050000000001</v>
       </c>
       <c r="W6">
         <f t="shared" si="2"/>
-        <v>6.2084380000000001</v>
+        <v>4.5098760000000002</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.45">
@@ -4568,78 +4568,78 @@
         <v>1000000</v>
       </c>
       <c r="B7">
-        <v>64.174099999999996</v>
+        <v>73.321100000000001</v>
       </c>
       <c r="C7">
-        <v>19.782</v>
+        <v>21.799900000000001</v>
       </c>
       <c r="D7">
-        <v>21.474799999999998</v>
+        <v>23.4847</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>83.956099999999992</v>
+        <v>95.121000000000009</v>
       </c>
       <c r="F7">
         <f t="shared" si="4"/>
-        <v>105.43089999999999</v>
+        <v>118.60570000000001</v>
       </c>
       <c r="G7">
-        <v>0.43159999999999998</v>
+        <v>0.47810000000000002</v>
       </c>
       <c r="H7">
-        <v>6.8860000000000001</v>
+        <v>5.0983999999999998</v>
       </c>
       <c r="I7">
-        <v>4.6177000000000001</v>
+        <v>4.6943999999999999</v>
       </c>
       <c r="J7">
-        <v>23.963200000000001</v>
+        <v>25.093299999999999</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>7.3176000000000005</v>
+        <v>5.5765000000000002</v>
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>35.898499999999999</v>
+        <v>35.364199999999997</v>
       </c>
       <c r="M7">
-        <v>46.968699999999998</v>
+        <v>46.990099999999998</v>
       </c>
       <c r="N7">
-        <v>15.711600000000001</v>
+        <v>16.2499</v>
       </c>
       <c r="O7">
-        <v>3.22254</v>
+        <v>3.2206899999999998</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>62.680300000000003</v>
+        <v>63.239999999999995</v>
       </c>
       <c r="Q7">
         <f t="shared" si="1"/>
-        <v>65.902839999999998</v>
+        <v>66.46069</v>
       </c>
       <c r="R7">
-        <v>0.84784000000000004</v>
+        <v>1.00038</v>
       </c>
       <c r="S7">
-        <v>5.7049799999999999</v>
+        <v>6.0666500000000001</v>
       </c>
       <c r="T7">
-        <v>2.4126099999999999</v>
+        <v>5.2098500000000003</v>
       </c>
       <c r="U7">
-        <v>6.8517000000000001</v>
+        <v>6.5240200000000002</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>6.5528199999999996</v>
+        <v>7.0670299999999999</v>
       </c>
       <c r="W7">
         <f t="shared" si="2"/>
-        <v>15.817129999999999</v>
+        <v>18.800899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -4647,78 +4647,78 @@
         <v>10000000</v>
       </c>
       <c r="B8">
-        <v>634.95299999999997</v>
+        <v>624.23699999999997</v>
       </c>
       <c r="C8">
-        <v>223.804</v>
+        <v>188.989</v>
       </c>
       <c r="D8">
-        <v>212.41900000000001</v>
+        <v>209.03200000000001</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>858.75699999999995</v>
+        <v>813.226</v>
       </c>
       <c r="F8">
         <f t="shared" si="4"/>
-        <v>1071.1759999999999</v>
+        <v>1022.258</v>
       </c>
       <c r="G8">
-        <v>1.5701000000000001</v>
+        <v>0.98419999999999996</v>
       </c>
       <c r="H8">
-        <v>29.1602</v>
+        <v>29.4176</v>
       </c>
       <c r="I8">
-        <v>40.905900000000003</v>
+        <v>42.903700000000001</v>
       </c>
       <c r="J8">
-        <v>230.73599999999999</v>
+        <v>225.434</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>30.7303</v>
+        <v>30.401800000000001</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>302.37220000000002</v>
+        <v>298.73950000000002</v>
       </c>
       <c r="M8">
-        <v>483.28699999999998</v>
+        <v>458.85199999999998</v>
       </c>
       <c r="N8">
-        <v>158.369</v>
+        <v>167.935</v>
       </c>
       <c r="O8">
-        <v>32.637300000000003</v>
+        <v>33.293500000000002</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>641.65599999999995</v>
+        <v>626.78700000000003</v>
       </c>
       <c r="Q8">
         <f t="shared" si="1"/>
-        <v>674.29329999999993</v>
+        <v>660.08050000000003</v>
       </c>
       <c r="R8">
-        <v>2.0986400000000001</v>
+        <v>2.84823</v>
       </c>
       <c r="S8">
-        <v>27.664200000000001</v>
+        <v>27.171700000000001</v>
       </c>
       <c r="T8">
-        <v>44.231900000000003</v>
+        <v>46.458199999999998</v>
       </c>
       <c r="U8">
-        <v>65.595399999999998</v>
+        <v>65.723500000000001</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>29.762840000000001</v>
+        <v>30.019930000000002</v>
       </c>
       <c r="W8">
         <f t="shared" si="2"/>
-        <v>139.59014000000002</v>
+        <v>142.20162999999999</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -4726,78 +4726,78 @@
         <v>100000000</v>
       </c>
       <c r="B9">
-        <v>6414.86</v>
+        <v>6345.27</v>
       </c>
       <c r="C9">
-        <v>1978.37</v>
+        <v>2010.93</v>
       </c>
       <c r="D9">
-        <v>2128.1999999999998</v>
+        <v>2106.0100000000002</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>8393.23</v>
+        <v>8356.2000000000007</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>10521.43</v>
+        <v>10462.210000000001</v>
       </c>
       <c r="G9">
-        <v>7.3479999999999999</v>
+        <v>7.2793000000000001</v>
       </c>
       <c r="H9">
-        <v>262.49700000000001</v>
+        <v>260.947</v>
       </c>
       <c r="I9">
-        <v>407.92200000000003</v>
+        <v>373.25200000000001</v>
       </c>
       <c r="J9">
-        <v>2211.0500000000002</v>
+        <v>2340.81</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>269.84500000000003</v>
+        <v>268.22629999999998</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>2888.817</v>
+        <v>2982.2883000000002</v>
       </c>
       <c r="M9">
-        <v>4622.03</v>
+        <v>4632.47</v>
       </c>
       <c r="N9">
-        <v>1560.01</v>
+        <v>4517.74</v>
       </c>
       <c r="O9">
-        <v>332.64699999999999</v>
+        <v>328.387</v>
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
-        <v>6182.04</v>
+        <v>9150.2099999999991</v>
       </c>
       <c r="Q9">
         <f t="shared" si="1"/>
-        <v>6514.6869999999999</v>
+        <v>9478.5969999999998</v>
       </c>
       <c r="R9">
-        <v>16.789000000000001</v>
+        <v>16.939800000000002</v>
       </c>
       <c r="S9">
-        <v>252.56299999999999</v>
+        <v>235.39599999999999</v>
       </c>
       <c r="T9">
-        <v>455.79399999999998</v>
+        <v>431.298</v>
       </c>
       <c r="U9">
-        <v>678.84799999999996</v>
+        <v>647.99900000000002</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>269.35199999999998</v>
+        <v>252.33579999999998</v>
       </c>
       <c r="W9">
         <f t="shared" si="2"/>
-        <v>1403.9939999999999</v>
+        <v>1331.6327999999999</v>
       </c>
     </row>
   </sheetData>
